--- a/REGULAR/OJT/NEW DONE/MARASIGAN, DANIEL.xlsx
+++ b/REGULAR/OJT/NEW DONE/MARASIGAN, DANIEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D4E08-14C8-4162-8101-52AA3DAE6F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707ECC51-0735-466D-BA12-A5F09A5D6628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1337,9 +1337,9 @@
   <dimension ref="A2:K390"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="2160" topLeftCell="A334"/>
+      <selection activeCell="B348" activeCellId="1" sqref="I9 B348"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9300,7 +9300,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
